--- a/工作流/PrlBA_BaoXiao_个人报销流程设计(博爱).xlsx
+++ b/工作流/PrlBA_BaoXiao_个人报销流程设计(博爱).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\现代医院内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\stamfordoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24360" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="26700" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -2171,22 +2171,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>266700</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4112" name="Object 1040" hidden="1">
+            <xdr:cNvPr id="4114" name="Object 1042" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4112"/>
+                  <a14:compatExt spid="_x0000_s4114"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2207,10 +2207,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2880,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3176,27 +3189,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4112" r:id="rId4">
+        <oleObject progId="Visio.Drawing.15" shapeId="4114" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4112" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4114" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/工作流/PrlBA_BaoXiao_个人报销流程设计(博爱).xlsx
+++ b/工作流/PrlBA_BaoXiao_个人报销流程设计(博爱).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26700" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="27870" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -855,10 +855,6 @@
     <t>Memo</t>
   </si>
   <si>
-    <t>AppDept</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>AppOrder</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1145,76 +1141,81 @@
     <t>drop table WF_PrlBA_BaoXiao_App;</t>
   </si>
   <si>
+    <t>constraint PK_WF_PrlBA_BaoXiao_App primary key(EntGid, FlowGid, Gid)</t>
+  </si>
+  <si>
+    <t>drop table WF_PrlBA_BaoXiao_Attach;</t>
+  </si>
+  <si>
+    <t>create table WF_PrlBA_BaoXiao_Attach (</t>
+  </si>
+  <si>
+    <t>constraint PK_WF_PrlBA_BaoXiao_Attach primary key(EntGid, FlowGid, Attach_Gid)</t>
+  </si>
+  <si>
+    <t>DOA:6.1.4.2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务：20</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA3</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA4</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>院长</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务：33</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门总监</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务经理</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务总监</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE VIEW v_Order AS</t>
+  </si>
+  <si>
+    <t>select f.entgid, f.flowgid, f.num, f.stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from wf_prlba_baoxiao f</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from wf_prlba_fee f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from wf_prlba_pay f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from wf_prlba_cg f;</t>
+  </si>
+  <si>
     <t>create table WF_PrlBA_BaoXiao_App (</t>
-  </si>
-  <si>
-    <t>constraint PK_WF_PrlBA_BaoXiao_App primary key(EntGid, FlowGid, Gid)</t>
-  </si>
-  <si>
-    <t>drop table WF_PrlBA_BaoXiao_Attach;</t>
-  </si>
-  <si>
-    <t>create table WF_PrlBA_BaoXiao_Attach (</t>
-  </si>
-  <si>
-    <t>constraint PK_WF_PrlBA_BaoXiao_Attach primary key(EntGid, FlowGid, Attach_Gid)</t>
-  </si>
-  <si>
-    <t>DOA:6.1.4.2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务：20</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>TA4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>院长</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务：33</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门总监</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务经理</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务总监</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE OR REPLACE VIEW v_Order AS</t>
-  </si>
-  <si>
-    <t>select f.entgid, f.flowgid, f.num, f.stat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from wf_prlba_baoxiao f</t>
-  </si>
-  <si>
-    <t>union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from wf_prlba_fee f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from wf_prlba_pay f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from wf_prlba_cg f;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppDept</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2207,23 +2208,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2893,7 +2881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2959,7 +2947,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>46</v>
@@ -2973,21 +2961,21 @@
         <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>46</v>
@@ -2998,16 +2986,16 @@
     </row>
     <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
@@ -3175,7 +3163,7 @@
         <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23"/>
     </row>
@@ -3228,62 +3216,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3296,8 +3284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3321,7 +3309,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3333,7 +3321,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -3808,7 +3796,7 @@
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B39" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="31"/>
@@ -3817,7 +3805,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="44"/>
@@ -3834,7 +3822,7 @@
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="31"/>
@@ -3842,7 +3830,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -3854,7 +3842,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -4074,7 +4062,7 @@
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B61" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" s="36"/>
       <c r="E61" s="35"/>
@@ -4090,7 +4078,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -4102,7 +4090,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="34" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
@@ -4217,7 +4205,7 @@
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B74" s="31" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="C74" s="31" t="s">
         <v>89</v>
@@ -4230,23 +4218,23 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="D75" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="F75" s="36"/>
       <c r="G75" s="37"/>
     </row>
     <row r="76" spans="1:7" ht="144" x14ac:dyDescent="0.15">
       <c r="B76" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" s="31" t="s">
         <v>84</v>
@@ -4258,7 +4246,7 @@
         <v>97</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4286,7 +4274,7 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" s="31" t="s">
         <v>104</v>
@@ -4316,7 +4304,7 @@
     </row>
     <row r="81" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B81" s="31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="31"/>
@@ -4332,7 +4320,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
@@ -4344,7 +4332,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -4406,7 +4394,7 @@
         <v>72</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F90" s="36"/>
     </row>
@@ -4465,7 +4453,7 @@
     </row>
     <row r="95" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B95" s="31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D95" s="38"/>
       <c r="E95" s="31"/>
